--- a/uploads/temp_uploaded_file.xlsx
+++ b/uploads/temp_uploaded_file.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PhasesDetails" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8294" uniqueCount="7840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8277" uniqueCount="7835">
   <si>
     <t>core_product_name</t>
   </si>
@@ -23214,9 +23214,6 @@
     <t>abc 4</t>
   </si>
   <si>
-    <t>abc 5</t>
-  </si>
-  <si>
     <t>abc 6</t>
   </si>
   <si>
@@ -23229,9 +23226,6 @@
     <t>abc 9</t>
   </si>
   <si>
-    <t>abc 10</t>
-  </si>
-  <si>
     <t>abc 11</t>
   </si>
   <si>
@@ -23526,9 +23520,6 @@
     <t>My SQL Enterprise Edition</t>
   </si>
   <si>
-    <t>Postgre SQL Community Edition</t>
-  </si>
-  <si>
     <t>Postgre SQL Enterprise Edition</t>
   </si>
   <si>
@@ -23541,9 +23532,6 @@
     <t>Maria DB Community Edition</t>
   </si>
   <si>
-    <t>MongoDB Community Edition</t>
-  </si>
-  <si>
     <t>SUSE</t>
   </si>
   <si>
@@ -23551,9 +23539,6 @@
   </si>
   <si>
     <t>Debian</t>
-  </si>
-  <si>
-    <t>OEM Specific</t>
   </si>
   <si>
     <t>BOM DR</t>
@@ -24419,15 +24404,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>7732</v>
+        <v>7730</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>7733</v>
+        <v>7731</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="B2" s="8">
         <v>7</v>
@@ -24507,7 +24492,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="B12" s="8">
         <v>12</v>
@@ -58307,10 +58292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ13"/>
+  <dimension ref="A1:CJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58395,273 +58380,273 @@
   <sheetData>
     <row r="1" spans="1:88" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
+        <v>7793</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>7756</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>7757</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>7758</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>7785</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>7786</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>7787</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>7788</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>7795</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>7758</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>7759</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>7760</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>7787</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>7788</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="J1" s="31" t="s">
+        <v>7796</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>7763</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>7732</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>7764</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>7733</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>7797</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>7810</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>7765</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>7734</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>7766</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>7735</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>7798</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>7811</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>7767</v>
+      </c>
+      <c r="X1" s="37" t="s">
+        <v>7736</v>
+      </c>
+      <c r="Y1" s="32" t="s">
+        <v>7768</v>
+      </c>
+      <c r="Z1" s="36" t="s">
+        <v>7737</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>7799</v>
+      </c>
+      <c r="AB1" s="35" t="s">
+        <v>7812</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>7769</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>7738</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>7770</v>
+      </c>
+      <c r="AF1" s="21" t="s">
+        <v>7739</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>7800</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>7813</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>7771</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>7740</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>7772</v>
+      </c>
+      <c r="AL1" s="36" t="s">
+        <v>7741</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>7801</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>7814</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>7773</v>
+      </c>
+      <c r="AP1" s="19" t="s">
+        <v>7742</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>7774</v>
+      </c>
+      <c r="AR1" s="21" t="s">
+        <v>7743</v>
+      </c>
+      <c r="AS1" s="21" t="s">
+        <v>7802</v>
+      </c>
+      <c r="AT1" s="31" t="s">
+        <v>7815</v>
+      </c>
+      <c r="AU1" s="34" t="s">
+        <v>7762</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>7744</v>
+      </c>
+      <c r="AW1" s="32" t="s">
+        <v>7775</v>
+      </c>
+      <c r="AX1" s="36" t="s">
+        <v>7745</v>
+      </c>
+      <c r="AY1" s="33" t="s">
+        <v>7803</v>
+      </c>
+      <c r="AZ1" s="35" t="s">
+        <v>7816</v>
+      </c>
+      <c r="BA1" s="18" t="s">
+        <v>7761</v>
+      </c>
+      <c r="BB1" s="19" t="s">
+        <v>7746</v>
+      </c>
+      <c r="BC1" s="20" t="s">
+        <v>7776</v>
+      </c>
+      <c r="BD1" s="21" t="s">
+        <v>7747</v>
+      </c>
+      <c r="BE1" s="21" t="s">
+        <v>7804</v>
+      </c>
+      <c r="BF1" s="31" t="s">
+        <v>7817</v>
+      </c>
+      <c r="BG1" s="34" t="s">
+        <v>7777</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>7748</v>
+      </c>
+      <c r="BI1" s="32" t="s">
+        <v>7778</v>
+      </c>
+      <c r="BJ1" s="36" t="s">
+        <v>7749</v>
+      </c>
+      <c r="BK1" s="33" t="s">
+        <v>7805</v>
+      </c>
+      <c r="BL1" s="35" t="s">
+        <v>7818</v>
+      </c>
+      <c r="BM1" s="18" t="s">
         <v>7789</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="BN1" s="19" t="s">
         <v>7790</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>7797</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>7798</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>7765</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>7734</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>7766</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>7735</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>7799</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>7812</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>7767</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>7736</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>7768</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>7737</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>7800</v>
-      </c>
-      <c r="V1" s="31" t="s">
-        <v>7813</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>7769</v>
-      </c>
-      <c r="X1" s="37" t="s">
-        <v>7738</v>
-      </c>
-      <c r="Y1" s="32" t="s">
-        <v>7770</v>
-      </c>
-      <c r="Z1" s="36" t="s">
-        <v>7739</v>
-      </c>
-      <c r="AA1" s="33" t="s">
-        <v>7801</v>
-      </c>
-      <c r="AB1" s="35" t="s">
-        <v>7814</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>7771</v>
-      </c>
-      <c r="AD1" s="19" t="s">
-        <v>7740</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>7772</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>7741</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>7802</v>
-      </c>
-      <c r="AH1" s="31" t="s">
-        <v>7815</v>
-      </c>
-      <c r="AI1" s="34" t="s">
-        <v>7773</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
-        <v>7742</v>
-      </c>
-      <c r="AK1" s="32" t="s">
-        <v>7774</v>
-      </c>
-      <c r="AL1" s="36" t="s">
-        <v>7743</v>
-      </c>
-      <c r="AM1" s="33" t="s">
-        <v>7803</v>
-      </c>
-      <c r="AN1" s="35" t="s">
-        <v>7816</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>7775</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>7744</v>
-      </c>
-      <c r="AQ1" s="20" t="s">
-        <v>7776</v>
-      </c>
-      <c r="AR1" s="21" t="s">
-        <v>7745</v>
-      </c>
-      <c r="AS1" s="21" t="s">
-        <v>7804</v>
-      </c>
-      <c r="AT1" s="31" t="s">
-        <v>7817</v>
-      </c>
-      <c r="AU1" s="34" t="s">
-        <v>7764</v>
-      </c>
-      <c r="AV1" s="37" t="s">
-        <v>7746</v>
-      </c>
-      <c r="AW1" s="32" t="s">
-        <v>7777</v>
-      </c>
-      <c r="AX1" s="36" t="s">
-        <v>7747</v>
-      </c>
-      <c r="AY1" s="33" t="s">
-        <v>7805</v>
-      </c>
-      <c r="AZ1" s="35" t="s">
-        <v>7818</v>
-      </c>
-      <c r="BA1" s="18" t="s">
-        <v>7763</v>
-      </c>
-      <c r="BB1" s="19" t="s">
-        <v>7748</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>7778</v>
-      </c>
-      <c r="BD1" s="21" t="s">
-        <v>7749</v>
-      </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BO1" s="20" t="s">
+        <v>7791</v>
+      </c>
+      <c r="BP1" s="21" t="s">
+        <v>7792</v>
+      </c>
+      <c r="BQ1" s="21" t="s">
         <v>7806</v>
       </c>
-      <c r="BF1" s="31" t="s">
+      <c r="BR1" s="31" t="s">
         <v>7819</v>
       </c>
-      <c r="BG1" s="34" t="s">
+      <c r="BS1" s="34" t="s">
         <v>7779</v>
       </c>
-      <c r="BH1" s="37" t="s">
+      <c r="BT1" s="37" t="s">
         <v>7750</v>
       </c>
-      <c r="BI1" s="32" t="s">
+      <c r="BU1" s="32" t="s">
         <v>7780</v>
       </c>
-      <c r="BJ1" s="36" t="s">
+      <c r="BV1" s="36" t="s">
         <v>7751</v>
       </c>
-      <c r="BK1" s="33" t="s">
+      <c r="BW1" s="33" t="s">
         <v>7807</v>
       </c>
-      <c r="BL1" s="35" t="s">
+      <c r="BX1" s="35" t="s">
         <v>7820</v>
       </c>
-      <c r="BM1" s="18" t="s">
-        <v>7791</v>
-      </c>
-      <c r="BN1" s="19" t="s">
-        <v>7792</v>
-      </c>
-      <c r="BO1" s="20" t="s">
-        <v>7793</v>
-      </c>
-      <c r="BP1" s="21" t="s">
-        <v>7794</v>
-      </c>
-      <c r="BQ1" s="21" t="s">
+      <c r="BY1" s="18" t="s">
+        <v>7781</v>
+      </c>
+      <c r="BZ1" s="19" t="s">
+        <v>7752</v>
+      </c>
+      <c r="CA1" s="20" t="s">
+        <v>7782</v>
+      </c>
+      <c r="CB1" s="21" t="s">
+        <v>7753</v>
+      </c>
+      <c r="CC1" s="21" t="s">
         <v>7808</v>
       </c>
-      <c r="BR1" s="31" t="s">
+      <c r="CD1" s="31" t="s">
         <v>7821</v>
       </c>
-      <c r="BS1" s="34" t="s">
-        <v>7781</v>
-      </c>
-      <c r="BT1" s="37" t="s">
-        <v>7752</v>
-      </c>
-      <c r="BU1" s="32" t="s">
-        <v>7782</v>
-      </c>
-      <c r="BV1" s="36" t="s">
-        <v>7753</v>
-      </c>
-      <c r="BW1" s="33" t="s">
+      <c r="CE1" s="34" t="s">
+        <v>7783</v>
+      </c>
+      <c r="CF1" s="37" t="s">
+        <v>7754</v>
+      </c>
+      <c r="CG1" s="32" t="s">
+        <v>7784</v>
+      </c>
+      <c r="CH1" s="36" t="s">
+        <v>7755</v>
+      </c>
+      <c r="CI1" s="33" t="s">
         <v>7809</v>
       </c>
-      <c r="BX1" s="35" t="s">
+      <c r="CJ1" s="35" t="s">
         <v>7822</v>
-      </c>
-      <c r="BY1" s="18" t="s">
-        <v>7783</v>
-      </c>
-      <c r="BZ1" s="19" t="s">
-        <v>7754</v>
-      </c>
-      <c r="CA1" s="20" t="s">
-        <v>7784</v>
-      </c>
-      <c r="CB1" s="21" t="s">
-        <v>7755</v>
-      </c>
-      <c r="CC1" s="21" t="s">
-        <v>7810</v>
-      </c>
-      <c r="CD1" s="31" t="s">
-        <v>7823</v>
-      </c>
-      <c r="CE1" s="34" t="s">
-        <v>7785</v>
-      </c>
-      <c r="CF1" s="37" t="s">
-        <v>7756</v>
-      </c>
-      <c r="CG1" s="32" t="s">
-        <v>7786</v>
-      </c>
-      <c r="CH1" s="36" t="s">
-        <v>7757</v>
-      </c>
-      <c r="CI1" s="33" t="s">
-        <v>7811</v>
-      </c>
-      <c r="CJ1" s="35" t="s">
-        <v>7824</v>
       </c>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>7721</v>
@@ -58670,7 +58655,7 @@
         <v>7720</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7825</v>
+        <v>7823</v>
       </c>
       <c r="E2" s="25">
         <v>2</v>
@@ -58689,7 +58674,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="27">
-        <f t="shared" ref="J2:J12" si="0">IF($D2="MS SQL Standard Edition - Active VM",F2/2,IF($D2="MS SQL Enterprise Edition - Active VM",F2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",F2,IF($D2="Postgre SQL Enterprise Edition",F2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",F2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="J2:J9" si="0">IF($D2="MS SQL Standard Edition - Active VM",F2/2,IF($D2="MS SQL Enterprise Edition - Active VM",F2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",F2,IF($D2="Postgre SQL Enterprise Edition",F2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",F2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>11</v>
       </c>
       <c r="K2" s="28">
@@ -58705,11 +58690,11 @@
         <v>200</v>
       </c>
       <c r="O2" s="29">
-        <f t="shared" ref="O2:O12" si="1">IF($C2="win",L2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="O2:O9" si="1">IF($C2="win",L2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="P2" s="30">
-        <f t="shared" ref="P2:P12" si="2">IF($D2="MS SQL Standard Edition - Active VM",L2/2,IF($D2="MS SQL Enterprise Edition - Active VM",L2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",L2,IF($D2="Postgre SQL Enterprise Edition",L2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",L2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="P2:P9" si="2">IF($D2="MS SQL Standard Edition - Active VM",L2/2,IF($D2="MS SQL Enterprise Edition - Active VM",L2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",L2,IF($D2="Postgre SQL Enterprise Edition",L2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",L2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="Q2" s="25">
@@ -58725,11 +58710,11 @@
         <v>200</v>
       </c>
       <c r="U2" s="26">
-        <f t="shared" ref="U2:U12" si="3">IF($C2="win",R2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="U2:U9" si="3">IF($C2="win",R2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="V2" s="27">
-        <f t="shared" ref="V2:V12" si="4">IF($D2="MS SQL Standard Edition - Active VM",R2/2,IF($D2="MS SQL Enterprise Edition - Active VM",R2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",R2,IF($D2="Postgre SQL Enterprise Edition",R2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",R2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="V2:V9" si="4">IF($D2="MS SQL Standard Edition - Active VM",R2/2,IF($D2="MS SQL Enterprise Edition - Active VM",R2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",R2,IF($D2="Postgre SQL Enterprise Edition",R2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",R2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="W2" s="28">
@@ -58745,11 +58730,11 @@
         <v>200</v>
       </c>
       <c r="AA2" s="29">
-        <f t="shared" ref="AA2:AA12" si="5">IF($C2="win",X2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AA2:AA9" si="5">IF($C2="win",X2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AB2" s="30">
-        <f t="shared" ref="AB2:AB12" si="6">IF($D2="MS SQL Standard Edition - Active VM",X2/2,IF($D2="MS SQL Enterprise Edition - Active VM",X2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",X2,IF($D2="Postgre SQL Enterprise Edition",X2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",X2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AB2:AB9" si="6">IF($D2="MS SQL Standard Edition - Active VM",X2/2,IF($D2="MS SQL Enterprise Edition - Active VM",X2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",X2,IF($D2="Postgre SQL Enterprise Edition",X2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",X2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AC2" s="25">
@@ -58765,11 +58750,11 @@
         <v>200</v>
       </c>
       <c r="AG2" s="26">
-        <f t="shared" ref="AG2:AG12" si="7">IF($C2="win",AD2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AG2:AG9" si="7">IF($C2="win",AD2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AH2" s="27">
-        <f t="shared" ref="AH2:AH12" si="8">IF($D2="MS SQL Standard Edition - Active VM",AD2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AD2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AD2,IF($D2="Postgre SQL Enterprise Edition",AD2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AD2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AH2:AH9" si="8">IF($D2="MS SQL Standard Edition - Active VM",AD2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AD2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AD2,IF($D2="Postgre SQL Enterprise Edition",AD2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AD2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AI2" s="28">
@@ -58785,11 +58770,11 @@
         <v>200</v>
       </c>
       <c r="AM2" s="29">
-        <f t="shared" ref="AM2:AM12" si="9">IF($C2="win",AJ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AM2:AM9" si="9">IF($C2="win",AJ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AN2" s="30">
-        <f t="shared" ref="AN2:AN12" si="10">IF($D2="MS SQL Standard Edition - Active VM",AJ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AJ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AJ2,IF($D2="Postgre SQL Enterprise Edition",AJ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AJ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AN2:AN9" si="10">IF($D2="MS SQL Standard Edition - Active VM",AJ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AJ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AJ2,IF($D2="Postgre SQL Enterprise Edition",AJ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AJ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AO2" s="25">
@@ -58805,11 +58790,11 @@
         <v>200</v>
       </c>
       <c r="AS2" s="26">
-        <f t="shared" ref="AS2:AS12" si="11">IF($C2="win",AP2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AS2:AS9" si="11">IF($C2="win",AP2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AT2" s="27">
-        <f t="shared" ref="AT2:AT12" si="12">IF($D2="MS SQL Standard Edition - Active VM",AP2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AP2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AP2,IF($D2="Postgre SQL Enterprise Edition",AP2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AP2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AT2:AT9" si="12">IF($D2="MS SQL Standard Edition - Active VM",AP2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AP2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AP2,IF($D2="Postgre SQL Enterprise Edition",AP2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AP2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="AU2" s="28">
@@ -58825,11 +58810,11 @@
         <v>200</v>
       </c>
       <c r="AY2" s="29">
-        <f t="shared" ref="AY2:AY12" si="13">IF($C2="win",AV2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="AY2:AY9" si="13">IF($C2="win",AV2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AZ2" s="30">
-        <f t="shared" ref="AZ2:AZ12" si="14">IF($D2="MS SQL Standard Edition - Active VM",AV2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AV2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AV2,IF($D2="Postgre SQL Enterprise Edition",AV2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AV2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="AZ2:AZ9" si="14">IF($D2="MS SQL Standard Edition - Active VM",AV2/2,IF($D2="MS SQL Enterprise Edition - Active VM",AV2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",AV2,IF($D2="Postgre SQL Enterprise Edition",AV2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",AV2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BA2" s="25">
@@ -58845,11 +58830,11 @@
         <v>200</v>
       </c>
       <c r="BE2" s="26">
-        <f t="shared" ref="BE2:BE12" si="15">IF($C2="win",BB2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BE2:BE9" si="15">IF($C2="win",BB2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BF2" s="27">
-        <f t="shared" ref="BF2:BF12" si="16">IF($D2="MS SQL Standard Edition - Active VM",BB2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BB2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BB2,IF($D2="Postgre SQL Enterprise Edition",BB2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BB2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BF2:BF9" si="16">IF($D2="MS SQL Standard Edition - Active VM",BB2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BB2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BB2,IF($D2="Postgre SQL Enterprise Edition",BB2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BB2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BG2" s="28">
@@ -58865,11 +58850,11 @@
         <v>200</v>
       </c>
       <c r="BK2" s="29">
-        <f t="shared" ref="BK2:BK12" si="17">IF($C2="win",BH2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BK2:BK9" si="17">IF($C2="win",BH2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BL2" s="30">
-        <f t="shared" ref="BL2:BL12" si="18">IF($D2="MS SQL Standard Edition - Active VM",BH2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BH2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BH2,IF($D2="Postgre SQL Enterprise Edition",BH2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BH2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BL2:BL9" si="18">IF($D2="MS SQL Standard Edition - Active VM",BH2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BH2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BH2,IF($D2="Postgre SQL Enterprise Edition",BH2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BH2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BM2" s="25">
@@ -58885,11 +58870,11 @@
         <v>200</v>
       </c>
       <c r="BQ2" s="26">
-        <f t="shared" ref="BQ2:BQ12" si="19">IF($C2="win",BN2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BQ2:BQ9" si="19">IF($C2="win",BN2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BR2" s="27">
-        <f t="shared" ref="BR2:BR12" si="20">IF($D2="MS SQL Standard Edition - Active VM",BN2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BN2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BN2,IF($D2="Postgre SQL Enterprise Edition",BN2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BN2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BR2:BR9" si="20">IF($D2="MS SQL Standard Edition - Active VM",BN2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BN2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BN2,IF($D2="Postgre SQL Enterprise Edition",BN2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BN2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BS2" s="28">
@@ -58905,11 +58890,11 @@
         <v>200</v>
       </c>
       <c r="BW2" s="29">
-        <f t="shared" ref="BW2:BW12" si="21">IF($C2="win",BT2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="BW2:BW9" si="21">IF($C2="win",BT2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BX2" s="30">
-        <f t="shared" ref="BX2:BX12" si="22">IF($D2="MS SQL Standard Edition - Active VM",BT2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BT2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BT2,IF($D2="Postgre SQL Enterprise Edition",BT2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BT2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="BX2:BX9" si="22">IF($D2="MS SQL Standard Edition - Active VM",BT2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BT2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BT2,IF($D2="Postgre SQL Enterprise Edition",BT2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BT2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="BY2" s="25">
@@ -58925,11 +58910,11 @@
         <v>200</v>
       </c>
       <c r="CC2" s="26">
-        <f t="shared" ref="CC2:CC12" si="23">IF($C2="win",BZ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="CC2:CC9" si="23">IF($C2="win",BZ2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CD2" s="27">
-        <f t="shared" ref="CD2:CD12" si="24">IF($D2="MS SQL Standard Edition - Active VM",BZ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BZ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BZ2,IF($D2="Postgre SQL Enterprise Edition",BZ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BZ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="CD2:CD9" si="24">IF($D2="MS SQL Standard Edition - Active VM",BZ2/2,IF($D2="MS SQL Enterprise Edition - Active VM",BZ2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",BZ2,IF($D2="Postgre SQL Enterprise Edition",BZ2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",BZ2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
       <c r="CE2" s="28">
@@ -58945,26 +58930,26 @@
         <v>200</v>
       </c>
       <c r="CI2" s="29">
-        <f t="shared" ref="CI2:CI12" si="25">IF($C2="win",CF2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="CI2:CI9" si="25">IF($C2="win",CF2/2,IF($C2="rhel",1,IF($C2="suse",1,IF($C2="Ubuntu",1,IF($C2="Oracle Linux",1,IF($C2="Debian",1,IF($C2="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CJ2" s="30">
-        <f t="shared" ref="CJ2:CJ12" si="26">IF($D2="MS SQL Standard Edition - Active VM",CF2/2,IF($D2="MS SQL Enterprise Edition - Active VM",CF2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",CF2,IF($D2="Postgre SQL Enterprise Edition",CF2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",CF2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="CJ2:CJ9" si="26">IF($D2="MS SQL Standard Edition - Active VM",CF2/2,IF($D2="MS SQL Enterprise Edition - Active VM",CF2/2,IF($D2="My SQL Community Edition",1,IF($D2="My SQL Enterprise Edition",1,IF($D2="Postgre SQL Community edition",CF2,IF($D2="Postgre SQL Enterprise Edition",CF2,IF($D2="Oracle Standard Edition",1,IF($D2="Oracle Enterprise",CF2/2,IF($D2="Maria DB Community edition",1,IF($D2="MongoDB Community edition",1,IF($D2="MS SQL Standard Edition - Passive VM",,IF($D2="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7722</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>7835</v>
+        <v>7831</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7826</v>
+        <v>7824</v>
       </c>
       <c r="E3" s="25">
         <v>4</v>
@@ -58979,7 +58964,7 @@
         <v>1400</v>
       </c>
       <c r="I3" s="26">
-        <f t="shared" ref="I2:I12" si="27">IF($C3="win",F3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
+        <f t="shared" ref="I3:I9" si="27">IF($C3="win",F3/2,IF($C3="rhel",1,IF($C3="suse",1,IF($C3="Ubuntu",1,IF($C3="Oracle Linux",1,IF($C3="Debian",1,IF($C3="OEM Specific",1,0)))))))</f>
         <v>1</v>
       </c>
       <c r="J3" s="27">
@@ -59249,16 +59234,16 @@
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>7723</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>7836</v>
+        <v>7832</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>7827</v>
+        <v>7825</v>
       </c>
       <c r="E4" s="25">
         <v>6</v>
@@ -59543,16 +59528,16 @@
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>7724</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7828</v>
+        <v>7826</v>
       </c>
       <c r="E5" s="25">
         <v>8</v>
@@ -59837,28 +59822,28 @@
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7725</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>7838</v>
+        <v>7833</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7829</v>
+        <v>7827</v>
       </c>
       <c r="E6" s="25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="25">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="25">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="25">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I6" s="26">
         <f t="shared" si="27"/>
@@ -59866,7 +59851,7 @@
       </c>
       <c r="J6" s="27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" s="28">
         <v>4</v>
@@ -60131,28 +60116,28 @@
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>7726</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7830</v>
+        <v>7828</v>
       </c>
       <c r="E7" s="25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="25">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="25">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I7" s="26">
         <f t="shared" si="27"/>
@@ -60160,7 +60145,7 @@
       </c>
       <c r="J7" s="27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K7" s="28">
         <v>4</v>
@@ -60180,7 +60165,7 @@
       </c>
       <c r="P7" s="30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="25">
         <v>4</v>
@@ -60200,7 +60185,7 @@
       </c>
       <c r="V7" s="27">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W7" s="28">
         <v>4</v>
@@ -60220,7 +60205,7 @@
       </c>
       <c r="AB7" s="30">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="25">
         <v>4</v>
@@ -60240,7 +60225,7 @@
       </c>
       <c r="AH7" s="27">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="28">
         <v>4</v>
@@ -60260,7 +60245,7 @@
       </c>
       <c r="AN7" s="30">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="25">
         <v>4</v>
@@ -60280,7 +60265,7 @@
       </c>
       <c r="AT7" s="27">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="28">
         <v>4</v>
@@ -60300,7 +60285,7 @@
       </c>
       <c r="AZ7" s="30">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="25">
         <v>4</v>
@@ -60320,7 +60305,7 @@
       </c>
       <c r="BF7" s="27">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="28">
         <v>4</v>
@@ -60340,7 +60325,7 @@
       </c>
       <c r="BL7" s="30">
         <f t="shared" si="18"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BM7" s="25">
         <v>4</v>
@@ -60360,7 +60345,7 @@
       </c>
       <c r="BR7" s="27">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="28">
         <v>4</v>
@@ -60380,7 +60365,7 @@
       </c>
       <c r="BX7" s="30">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BY7" s="25">
         <v>4</v>
@@ -60400,7 +60385,7 @@
       </c>
       <c r="CD7" s="27">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CE7" s="28">
         <v>4</v>
@@ -60420,33 +60405,33 @@
       </c>
       <c r="CJ7" s="30">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>7727</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>7837</v>
+        <v>7833</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>7831</v>
+        <v>7829</v>
       </c>
       <c r="E8" s="25">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8" s="25">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H8" s="25">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I8" s="26">
         <f t="shared" si="27"/>
@@ -60454,7 +60439,7 @@
       </c>
       <c r="J8" s="27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" s="28">
         <v>4</v>
@@ -60474,7 +60459,7 @@
       </c>
       <c r="P8" s="30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="25">
         <v>4</v>
@@ -60494,7 +60479,7 @@
       </c>
       <c r="V8" s="27">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W8" s="28">
         <v>4</v>
@@ -60514,7 +60499,7 @@
       </c>
       <c r="AB8" s="30">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC8" s="25">
         <v>4</v>
@@ -60534,7 +60519,7 @@
       </c>
       <c r="AH8" s="27">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" s="28">
         <v>4</v>
@@ -60554,7 +60539,7 @@
       </c>
       <c r="AN8" s="30">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" s="25">
         <v>4</v>
@@ -60574,7 +60559,7 @@
       </c>
       <c r="AT8" s="27">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" s="28">
         <v>4</v>
@@ -60594,7 +60579,7 @@
       </c>
       <c r="AZ8" s="30">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA8" s="25">
         <v>4</v>
@@ -60614,7 +60599,7 @@
       </c>
       <c r="BF8" s="27">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG8" s="28">
         <v>4</v>
@@ -60634,7 +60619,7 @@
       </c>
       <c r="BL8" s="30">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM8" s="25">
         <v>4</v>
@@ -60654,7 +60639,7 @@
       </c>
       <c r="BR8" s="27">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS8" s="28">
         <v>4</v>
@@ -60674,7 +60659,7 @@
       </c>
       <c r="BX8" s="30">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY8" s="25">
         <v>4</v>
@@ -60694,7 +60679,7 @@
       </c>
       <c r="CD8" s="27">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE8" s="28">
         <v>4</v>
@@ -60714,41 +60699,41 @@
       </c>
       <c r="CJ8" s="30">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>7796</v>
+        <v>7794</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7728</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>7837</v>
+        <v>7720</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>7832</v>
+        <v>7830</v>
       </c>
       <c r="E9" s="25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="25">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H9" s="25">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I9" s="26">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="28">
         <v>4</v>
@@ -60764,11 +60749,11 @@
       </c>
       <c r="O9" s="29">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="25">
         <v>4</v>
@@ -60784,11 +60769,11 @@
       </c>
       <c r="U9" s="26">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V9" s="27">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" s="28">
         <v>4</v>
@@ -60804,11 +60789,11 @@
       </c>
       <c r="AA9" s="29">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9" s="30">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="25">
         <v>4</v>
@@ -60824,11 +60809,11 @@
       </c>
       <c r="AG9" s="26">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="27">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="28">
         <v>4</v>
@@ -60844,11 +60829,11 @@
       </c>
       <c r="AM9" s="29">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN9" s="30">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="25">
         <v>4</v>
@@ -60864,11 +60849,11 @@
       </c>
       <c r="AS9" s="26">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9" s="27">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="28">
         <v>4</v>
@@ -60884,11 +60869,11 @@
       </c>
       <c r="AY9" s="29">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ9" s="30">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="25">
         <v>4</v>
@@ -60904,11 +60889,11 @@
       </c>
       <c r="BE9" s="26">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF9" s="27">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG9" s="28">
         <v>4</v>
@@ -60924,11 +60909,11 @@
       </c>
       <c r="BK9" s="29">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL9" s="30">
         <f t="shared" si="18"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM9" s="25">
         <v>4</v>
@@ -60944,11 +60929,11 @@
       </c>
       <c r="BQ9" s="26">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BR9" s="27">
         <f t="shared" si="20"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="28">
         <v>4</v>
@@ -60964,11 +60949,11 @@
       </c>
       <c r="BW9" s="29">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX9" s="30">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY9" s="25">
         <v>4</v>
@@ -60984,11 +60969,11 @@
       </c>
       <c r="CC9" s="26">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD9" s="27">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE9" s="28">
         <v>4</v>
@@ -61004,65 +60989,65 @@
       </c>
       <c r="CI9" s="29">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ9" s="30">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>7796</v>
-      </c>
-      <c r="B10" s="15" t="s">
+        <v>7834</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>7729</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>7720</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>7833</v>
+        <v>7823</v>
       </c>
       <c r="E10" s="25">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F10" s="25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="25">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H10" s="25">
-        <v>500</v>
+        <v>10000</v>
       </c>
       <c r="I10" s="26">
-        <f t="shared" si="27"/>
-        <v>3</v>
+        <f t="shared" ref="I10" si="28">IF($C10="win",F10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
+        <v>1</v>
       </c>
       <c r="J10" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J10" si="29">IF($D10="MS SQL Standard Edition - Active VM",F10/2,IF($D10="MS SQL Enterprise Edition - Active VM",F10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",F10,IF($D10="Postgre SQL Enterprise Edition",F10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",F10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>1</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="38">
         <v>4</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="38">
         <v>4</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="38">
         <v>8</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="38">
         <v>200</v>
       </c>
       <c r="O10" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="O10" si="30">IF($C10="win",L10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="P10" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="P10" si="31">IF($D10="MS SQL Standard Edition - Active VM",L10/2,IF($D10="MS SQL Enterprise Edition - Active VM",L10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",L10,IF($D10="Postgre SQL Enterprise Edition",L10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",L10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="Q10" s="25">
         <v>4</v>
@@ -61077,32 +61062,32 @@
         <v>200</v>
       </c>
       <c r="U10" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="U10" si="32">IF($C10="win",R10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="V10" s="27">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W10" s="28">
+        <f t="shared" ref="V10" si="33">IF($D10="MS SQL Standard Edition - Active VM",R10/2,IF($D10="MS SQL Enterprise Edition - Active VM",R10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",R10,IF($D10="Postgre SQL Enterprise Edition",R10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",R10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="W10" s="38">
         <v>4</v>
       </c>
-      <c r="X10" s="28">
+      <c r="X10" s="38">
         <v>4</v>
       </c>
-      <c r="Y10" s="28">
+      <c r="Y10" s="38">
         <v>8</v>
       </c>
-      <c r="Z10" s="28">
+      <c r="Z10" s="38">
         <v>200</v>
       </c>
       <c r="AA10" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AA10" si="34">IF($C10="win",X10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AB10" s="30">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="AB10" si="35">IF($D10="MS SQL Standard Edition - Active VM",X10/2,IF($D10="MS SQL Enterprise Edition - Active VM",X10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",X10,IF($D10="Postgre SQL Enterprise Edition",X10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",X10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="AC10" s="25">
         <v>4</v>
@@ -61117,32 +61102,32 @@
         <v>200</v>
       </c>
       <c r="AG10" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AG10" si="36">IF($C10="win",AD10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AH10" s="27">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AI10" s="28">
+        <f t="shared" ref="AH10" si="37">IF($D10="MS SQL Standard Edition - Active VM",AD10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AD10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AD10,IF($D10="Postgre SQL Enterprise Edition",AD10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AD10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AI10" s="38">
         <v>4</v>
       </c>
-      <c r="AJ10" s="28">
+      <c r="AJ10" s="38">
         <v>4</v>
       </c>
-      <c r="AK10" s="28">
+      <c r="AK10" s="38">
         <v>8</v>
       </c>
-      <c r="AL10" s="28">
+      <c r="AL10" s="38">
         <v>200</v>
       </c>
       <c r="AM10" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AM10" si="38">IF($C10="win",AJ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AN10" s="30">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="AN10" si="39">IF($D10="MS SQL Standard Edition - Active VM",AJ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AJ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AJ10,IF($D10="Postgre SQL Enterprise Edition",AJ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AJ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="AO10" s="25">
         <v>4</v>
@@ -61157,32 +61142,32 @@
         <v>200</v>
       </c>
       <c r="AS10" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AS10" si="40">IF($C10="win",AP10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AT10" s="27">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AU10" s="28">
+        <f t="shared" ref="AT10" si="41">IF($D10="MS SQL Standard Edition - Active VM",AP10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AP10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AP10,IF($D10="Postgre SQL Enterprise Edition",AP10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AP10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="AU10" s="38">
         <v>4</v>
       </c>
-      <c r="AV10" s="28">
+      <c r="AV10" s="38">
         <v>4</v>
       </c>
-      <c r="AW10" s="28">
+      <c r="AW10" s="38">
         <v>8</v>
       </c>
-      <c r="AX10" s="28">
+      <c r="AX10" s="38">
         <v>200</v>
       </c>
       <c r="AY10" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AY10" si="42">IF($C10="win",AV10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="AZ10" s="30">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f t="shared" ref="AZ10" si="43">IF($D10="MS SQL Standard Edition - Active VM",AV10/2,IF($D10="MS SQL Enterprise Edition - Active VM",AV10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",AV10,IF($D10="Postgre SQL Enterprise Edition",AV10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",AV10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="BA10" s="25">
         <v>4</v>
@@ -61197,32 +61182,32 @@
         <v>200</v>
       </c>
       <c r="BE10" s="26">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="BE10" si="44">IF($C10="win",BB10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BF10" s="27">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BG10" s="28">
+        <f t="shared" ref="BF10" si="45">IF($D10="MS SQL Standard Edition - Active VM",BB10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BB10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BB10,IF($D10="Postgre SQL Enterprise Edition",BB10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BB10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BG10" s="38">
         <v>4</v>
       </c>
-      <c r="BH10" s="28">
+      <c r="BH10" s="38">
         <v>4</v>
       </c>
-      <c r="BI10" s="28">
+      <c r="BI10" s="38">
         <v>8</v>
       </c>
-      <c r="BJ10" s="28">
+      <c r="BJ10" s="38">
         <v>200</v>
       </c>
       <c r="BK10" s="29">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="BK10" si="46">IF($C10="win",BH10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BL10" s="30">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" ref="BL10" si="47">IF($D10="MS SQL Standard Edition - Active VM",BH10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BH10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BH10,IF($D10="Postgre SQL Enterprise Edition",BH10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BH10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="BM10" s="25">
         <v>4</v>
@@ -61237,32 +61222,32 @@
         <v>200</v>
       </c>
       <c r="BQ10" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="BQ10" si="48">IF($C10="win",BN10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BR10" s="27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="BS10" s="28">
+        <f t="shared" ref="BR10" si="49">IF($D10="MS SQL Standard Edition - Active VM",BN10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BN10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BN10,IF($D10="Postgre SQL Enterprise Edition",BN10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BN10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="BS10" s="38">
         <v>4</v>
       </c>
-      <c r="BT10" s="28">
+      <c r="BT10" s="38">
         <v>4</v>
       </c>
-      <c r="BU10" s="28">
+      <c r="BU10" s="38">
         <v>8</v>
       </c>
-      <c r="BV10" s="28">
+      <c r="BV10" s="38">
         <v>200</v>
       </c>
       <c r="BW10" s="29">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="BW10" si="50">IF($C10="win",BT10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="BX10" s="30">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" ref="BX10" si="51">IF($D10="MS SQL Standard Edition - Active VM",BT10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BT10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BT10,IF($D10="Postgre SQL Enterprise Edition",BT10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BT10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
       </c>
       <c r="BY10" s="25">
         <v>4</v>
@@ -61277,923 +61262,41 @@
         <v>200</v>
       </c>
       <c r="CC10" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="CC10" si="52">IF($C10="win",BZ10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CD10" s="27">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="CE10" s="28">
+        <f t="shared" ref="CD10" si="53">IF($D10="MS SQL Standard Edition - Active VM",BZ10/2,IF($D10="MS SQL Enterprise Edition - Active VM",BZ10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",BZ10,IF($D10="Postgre SQL Enterprise Edition",BZ10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",BZ10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <v>2</v>
+      </c>
+      <c r="CE10" s="38">
         <v>4</v>
       </c>
-      <c r="CF10" s="28">
+      <c r="CF10" s="38">
         <v>4</v>
       </c>
-      <c r="CG10" s="28">
+      <c r="CG10" s="38">
         <v>8</v>
       </c>
-      <c r="CH10" s="28">
+      <c r="CH10" s="38">
         <v>200</v>
       </c>
       <c r="CI10" s="29">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="CI10" si="54">IF($C10="win",CF10/2,IF($C10="rhel",1,IF($C10="suse",1,IF($C10="Ubuntu",1,IF($C10="Oracle Linux",1,IF($C10="Debian",1,IF($C10="OEM Specific",1,0)))))))</f>
         <v>2</v>
       </c>
       <c r="CJ10" s="30">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>7796</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>7730</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7834</v>
-      </c>
-      <c r="E11" s="25">
-        <v>20</v>
-      </c>
-      <c r="F11" s="25">
-        <v>4</v>
-      </c>
-      <c r="G11" s="25">
-        <v>46</v>
-      </c>
-      <c r="H11" s="25">
-        <v>900</v>
-      </c>
-      <c r="I11" s="26">
-        <f t="shared" si="27"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="28">
-        <v>4</v>
-      </c>
-      <c r="L11" s="28">
-        <v>4</v>
-      </c>
-      <c r="M11" s="28">
-        <v>8</v>
-      </c>
-      <c r="N11" s="28">
-        <v>200</v>
-      </c>
-      <c r="O11" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P11" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="25">
-        <v>4</v>
-      </c>
-      <c r="R11" s="25">
-        <v>4</v>
-      </c>
-      <c r="S11" s="25">
-        <v>8</v>
-      </c>
-      <c r="T11" s="25">
-        <v>200</v>
-      </c>
-      <c r="U11" s="26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V11" s="27">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="28">
-        <v>4</v>
-      </c>
-      <c r="X11" s="28">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="28">
-        <v>8</v>
-      </c>
-      <c r="Z11" s="28">
-        <v>200</v>
-      </c>
-      <c r="AA11" s="29">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB11" s="30">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AC11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="25">
-        <v>8</v>
-      </c>
-      <c r="AF11" s="25">
-        <v>200</v>
-      </c>
-      <c r="AG11" s="26">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH11" s="27">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AI11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AJ11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="28">
-        <v>8</v>
-      </c>
-      <c r="AL11" s="28">
-        <v>200</v>
-      </c>
-      <c r="AM11" s="29">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AN11" s="30">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AO11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AP11" s="25">
-        <v>4</v>
-      </c>
-      <c r="AQ11" s="25">
-        <v>8</v>
-      </c>
-      <c r="AR11" s="25">
-        <v>200</v>
-      </c>
-      <c r="AS11" s="26">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AT11" s="27">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AU11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AV11" s="28">
-        <v>4</v>
-      </c>
-      <c r="AW11" s="28">
-        <v>8</v>
-      </c>
-      <c r="AX11" s="28">
-        <v>200</v>
-      </c>
-      <c r="AY11" s="29">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AZ11" s="30">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="BA11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BB11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC11" s="25">
-        <v>8</v>
-      </c>
-      <c r="BD11" s="25">
-        <v>200</v>
-      </c>
-      <c r="BE11" s="26">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BF11" s="27">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="BG11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BH11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BI11" s="28">
-        <v>8</v>
-      </c>
-      <c r="BJ11" s="28">
-        <v>200</v>
-      </c>
-      <c r="BK11" s="29">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="BL11" s="30">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="BM11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BN11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BO11" s="25">
-        <v>8</v>
-      </c>
-      <c r="BP11" s="25">
-        <v>200</v>
-      </c>
-      <c r="BQ11" s="26">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BR11" s="27">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="BS11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BT11" s="28">
-        <v>4</v>
-      </c>
-      <c r="BU11" s="28">
-        <v>8</v>
-      </c>
-      <c r="BV11" s="28">
-        <v>200</v>
-      </c>
-      <c r="BW11" s="29">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="BX11" s="30">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="BY11" s="25">
-        <v>4</v>
-      </c>
-      <c r="BZ11" s="25">
-        <v>4</v>
-      </c>
-      <c r="CA11" s="25">
-        <v>8</v>
-      </c>
-      <c r="CB11" s="25">
-        <v>200</v>
-      </c>
-      <c r="CC11" s="26">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="CD11" s="27">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="CE11" s="28">
-        <v>4</v>
-      </c>
-      <c r="CF11" s="28">
-        <v>4</v>
-      </c>
-      <c r="CG11" s="28">
-        <v>8</v>
-      </c>
-      <c r="CH11" s="28">
-        <v>200</v>
-      </c>
-      <c r="CI11" s="29">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="CJ11" s="30">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>7796</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>7825</v>
-      </c>
-      <c r="E12" s="25">
-        <v>22</v>
-      </c>
-      <c r="F12" s="25">
-        <v>2</v>
-      </c>
-      <c r="G12" s="25">
-        <v>44</v>
-      </c>
-      <c r="H12" s="25">
-        <v>10000</v>
-      </c>
-      <c r="I12" s="26">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="38">
-        <v>4</v>
-      </c>
-      <c r="L12" s="38">
-        <v>4</v>
-      </c>
-      <c r="M12" s="38">
-        <v>8</v>
-      </c>
-      <c r="N12" s="38">
-        <v>200</v>
-      </c>
-      <c r="O12" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P12" s="30">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>4</v>
-      </c>
-      <c r="R12" s="25">
-        <v>4</v>
-      </c>
-      <c r="S12" s="25">
-        <v>8</v>
-      </c>
-      <c r="T12" s="25">
-        <v>200</v>
-      </c>
-      <c r="U12" s="26">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="V12" s="27">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="W12" s="38">
-        <v>4</v>
-      </c>
-      <c r="X12" s="38">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="38">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="38">
-        <v>200</v>
-      </c>
-      <c r="AA12" s="29">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB12" s="30">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AC12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AD12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="25">
-        <v>8</v>
-      </c>
-      <c r="AF12" s="25">
-        <v>200</v>
-      </c>
-      <c r="AG12" s="26">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH12" s="27">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AI12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AJ12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AK12" s="38">
-        <v>8</v>
-      </c>
-      <c r="AL12" s="38">
-        <v>200</v>
-      </c>
-      <c r="AM12" s="29">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AN12" s="30">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AO12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AP12" s="25">
-        <v>4</v>
-      </c>
-      <c r="AQ12" s="25">
-        <v>8</v>
-      </c>
-      <c r="AR12" s="25">
-        <v>200</v>
-      </c>
-      <c r="AS12" s="26">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AT12" s="27">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AU12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AV12" s="38">
-        <v>4</v>
-      </c>
-      <c r="AW12" s="38">
-        <v>8</v>
-      </c>
-      <c r="AX12" s="38">
-        <v>200</v>
-      </c>
-      <c r="AY12" s="29">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AZ12" s="30">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="BA12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BB12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC12" s="25">
-        <v>8</v>
-      </c>
-      <c r="BD12" s="25">
-        <v>200</v>
-      </c>
-      <c r="BE12" s="26">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BF12" s="27">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="BG12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BH12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BI12" s="38">
-        <v>8</v>
-      </c>
-      <c r="BJ12" s="38">
-        <v>200</v>
-      </c>
-      <c r="BK12" s="29">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="BL12" s="30">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="BM12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BN12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BO12" s="25">
-        <v>8</v>
-      </c>
-      <c r="BP12" s="25">
-        <v>200</v>
-      </c>
-      <c r="BQ12" s="26">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="BR12" s="27">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="BS12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BT12" s="38">
-        <v>4</v>
-      </c>
-      <c r="BU12" s="38">
-        <v>8</v>
-      </c>
-      <c r="BV12" s="38">
-        <v>200</v>
-      </c>
-      <c r="BW12" s="29">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="BX12" s="30">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="BY12" s="25">
-        <v>4</v>
-      </c>
-      <c r="BZ12" s="25">
-        <v>4</v>
-      </c>
-      <c r="CA12" s="25">
-        <v>8</v>
-      </c>
-      <c r="CB12" s="25">
-        <v>200</v>
-      </c>
-      <c r="CC12" s="26">
-        <f t="shared" si="23"/>
-        <v>2</v>
-      </c>
-      <c r="CD12" s="27">
-        <f t="shared" si="24"/>
-        <v>2</v>
-      </c>
-      <c r="CE12" s="38">
-        <v>4</v>
-      </c>
-      <c r="CF12" s="38">
-        <v>4</v>
-      </c>
-      <c r="CG12" s="38">
-        <v>8</v>
-      </c>
-      <c r="CH12" s="38">
-        <v>200</v>
-      </c>
-      <c r="CI12" s="29">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="CJ12" s="30">
-        <f t="shared" si="26"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>7839</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>7731</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>7720</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7825</v>
-      </c>
-      <c r="E13" s="25">
-        <v>22</v>
-      </c>
-      <c r="F13" s="25">
-        <v>2</v>
-      </c>
-      <c r="G13" s="25">
-        <v>44</v>
-      </c>
-      <c r="H13" s="25">
-        <v>10000</v>
-      </c>
-      <c r="I13" s="26">
-        <f t="shared" ref="I13" si="28">IF($C13="win",F13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="27">
-        <f t="shared" ref="J13" si="29">IF($D13="MS SQL Standard Edition - Active VM",F13/2,IF($D13="MS SQL Enterprise Edition - Active VM",F13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",F13,IF($D13="Postgre SQL Enterprise Edition",F13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",F13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="38">
-        <v>4</v>
-      </c>
-      <c r="L13" s="38">
-        <v>4</v>
-      </c>
-      <c r="M13" s="38">
-        <v>8</v>
-      </c>
-      <c r="N13" s="38">
-        <v>200</v>
-      </c>
-      <c r="O13" s="29">
-        <f t="shared" ref="O13" si="30">IF($C13="win",L13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="P13" s="30">
-        <f t="shared" ref="P13" si="31">IF($D13="MS SQL Standard Edition - Active VM",L13/2,IF($D13="MS SQL Enterprise Edition - Active VM",L13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",L13,IF($D13="Postgre SQL Enterprise Edition",L13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",L13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>4</v>
-      </c>
-      <c r="R13" s="25">
-        <v>4</v>
-      </c>
-      <c r="S13" s="25">
-        <v>8</v>
-      </c>
-      <c r="T13" s="25">
-        <v>200</v>
-      </c>
-      <c r="U13" s="26">
-        <f t="shared" ref="U13" si="32">IF($C13="win",R13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="V13" s="27">
-        <f t="shared" ref="V13" si="33">IF($D13="MS SQL Standard Edition - Active VM",R13/2,IF($D13="MS SQL Enterprise Edition - Active VM",R13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",R13,IF($D13="Postgre SQL Enterprise Edition",R13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",R13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="W13" s="38">
-        <v>4</v>
-      </c>
-      <c r="X13" s="38">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="38">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="38">
-        <v>200</v>
-      </c>
-      <c r="AA13" s="29">
-        <f t="shared" ref="AA13" si="34">IF($C13="win",X13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AB13" s="30">
-        <f t="shared" ref="AB13" si="35">IF($D13="MS SQL Standard Edition - Active VM",X13/2,IF($D13="MS SQL Enterprise Edition - Active VM",X13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",X13,IF($D13="Postgre SQL Enterprise Edition",X13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",X13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AC13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>8</v>
-      </c>
-      <c r="AF13" s="25">
-        <v>200</v>
-      </c>
-      <c r="AG13" s="26">
-        <f t="shared" ref="AG13" si="36">IF($C13="win",AD13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AH13" s="27">
-        <f t="shared" ref="AH13" si="37">IF($D13="MS SQL Standard Edition - Active VM",AD13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AD13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AD13,IF($D13="Postgre SQL Enterprise Edition",AD13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AD13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AI13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AK13" s="38">
-        <v>8</v>
-      </c>
-      <c r="AL13" s="38">
-        <v>200</v>
-      </c>
-      <c r="AM13" s="29">
-        <f t="shared" ref="AM13" si="38">IF($C13="win",AJ13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AN13" s="30">
-        <f t="shared" ref="AN13" si="39">IF($D13="MS SQL Standard Edition - Active VM",AJ13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AJ13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AJ13,IF($D13="Postgre SQL Enterprise Edition",AJ13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AJ13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AO13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AP13" s="25">
-        <v>4</v>
-      </c>
-      <c r="AQ13" s="25">
-        <v>8</v>
-      </c>
-      <c r="AR13" s="25">
-        <v>200</v>
-      </c>
-      <c r="AS13" s="26">
-        <f t="shared" ref="AS13" si="40">IF($C13="win",AP13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AT13" s="27">
-        <f t="shared" ref="AT13" si="41">IF($D13="MS SQL Standard Edition - Active VM",AP13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AP13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AP13,IF($D13="Postgre SQL Enterprise Edition",AP13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AP13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AU13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AV13" s="38">
-        <v>4</v>
-      </c>
-      <c r="AW13" s="38">
-        <v>8</v>
-      </c>
-      <c r="AX13" s="38">
-        <v>200</v>
-      </c>
-      <c r="AY13" s="29">
-        <f t="shared" ref="AY13" si="42">IF($C13="win",AV13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="AZ13" s="30">
-        <f t="shared" ref="AZ13" si="43">IF($D13="MS SQL Standard Edition - Active VM",AV13/2,IF($D13="MS SQL Enterprise Edition - Active VM",AV13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",AV13,IF($D13="Postgre SQL Enterprise Edition",AV13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",AV13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BA13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BB13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BC13" s="25">
-        <v>8</v>
-      </c>
-      <c r="BD13" s="25">
-        <v>200</v>
-      </c>
-      <c r="BE13" s="26">
-        <f t="shared" ref="BE13" si="44">IF($C13="win",BB13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BF13" s="27">
-        <f t="shared" ref="BF13" si="45">IF($D13="MS SQL Standard Edition - Active VM",BB13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BB13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BB13,IF($D13="Postgre SQL Enterprise Edition",BB13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BB13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BG13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BH13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BI13" s="38">
-        <v>8</v>
-      </c>
-      <c r="BJ13" s="38">
-        <v>200</v>
-      </c>
-      <c r="BK13" s="29">
-        <f t="shared" ref="BK13" si="46">IF($C13="win",BH13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BL13" s="30">
-        <f t="shared" ref="BL13" si="47">IF($D13="MS SQL Standard Edition - Active VM",BH13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BH13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BH13,IF($D13="Postgre SQL Enterprise Edition",BH13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BH13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BM13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BN13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BO13" s="25">
-        <v>8</v>
-      </c>
-      <c r="BP13" s="25">
-        <v>200</v>
-      </c>
-      <c r="BQ13" s="26">
-        <f t="shared" ref="BQ13" si="48">IF($C13="win",BN13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BR13" s="27">
-        <f t="shared" ref="BR13" si="49">IF($D13="MS SQL Standard Edition - Active VM",BN13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BN13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BN13,IF($D13="Postgre SQL Enterprise Edition",BN13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BN13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BS13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BT13" s="38">
-        <v>4</v>
-      </c>
-      <c r="BU13" s="38">
-        <v>8</v>
-      </c>
-      <c r="BV13" s="38">
-        <v>200</v>
-      </c>
-      <c r="BW13" s="29">
-        <f t="shared" ref="BW13" si="50">IF($C13="win",BT13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BX13" s="30">
-        <f t="shared" ref="BX13" si="51">IF($D13="MS SQL Standard Edition - Active VM",BT13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BT13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BT13,IF($D13="Postgre SQL Enterprise Edition",BT13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BT13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="BY13" s="25">
-        <v>4</v>
-      </c>
-      <c r="BZ13" s="25">
-        <v>4</v>
-      </c>
-      <c r="CA13" s="25">
-        <v>8</v>
-      </c>
-      <c r="CB13" s="25">
-        <v>200</v>
-      </c>
-      <c r="CC13" s="26">
-        <f t="shared" ref="CC13" si="52">IF($C13="win",BZ13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CD13" s="27">
-        <f t="shared" ref="CD13" si="53">IF($D13="MS SQL Standard Edition - Active VM",BZ13/2,IF($D13="MS SQL Enterprise Edition - Active VM",BZ13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",BZ13,IF($D13="Postgre SQL Enterprise Edition",BZ13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",BZ13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CE13" s="38">
-        <v>4</v>
-      </c>
-      <c r="CF13" s="38">
-        <v>4</v>
-      </c>
-      <c r="CG13" s="38">
-        <v>8</v>
-      </c>
-      <c r="CH13" s="38">
-        <v>200</v>
-      </c>
-      <c r="CI13" s="29">
-        <f t="shared" ref="CI13" si="54">IF($C13="win",CF13/2,IF($C13="rhel",1,IF($C13="suse",1,IF($C13="Ubuntu",1,IF($C13="Oracle Linux",1,IF($C13="Debian",1,IF($C13="OEM Specific",1,0)))))))</f>
-        <v>2</v>
-      </c>
-      <c r="CJ13" s="30">
-        <f t="shared" ref="CJ13" si="55">IF($D13="MS SQL Standard Edition - Active VM",CF13/2,IF($D13="MS SQL Enterprise Edition - Active VM",CF13/2,IF($D13="My SQL Community Edition",1,IF($D13="My SQL Enterprise Edition",1,IF($D13="Postgre SQL Community edition",CF13,IF($D13="Postgre SQL Enterprise Edition",CF13,IF($D13="Oracle Standard Edition",1,IF($D13="Oracle Enterprise",CF13/2,IF($D13="Maria DB Community edition",1,IF($D13="MongoDB Community edition",1,IF($D13="MS SQL Standard Edition - Passive VM",,IF($D13="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
+        <f t="shared" ref="CJ10" si="55">IF($D10="MS SQL Standard Edition - Active VM",CF10/2,IF($D10="MS SQL Enterprise Edition - Active VM",CF10/2,IF($D10="My SQL Community Edition",1,IF($D10="My SQL Enterprise Edition",1,IF($D10="Postgre SQL Community edition",CF10,IF($D10="Postgre SQL Enterprise Edition",CF10,IF($D10="Oracle Standard Edition",1,IF($D10="Oracle Enterprise",CF10/2,IF($D10="Maria DB Community edition",1,IF($D10="MongoDB Community edition",1,IF($D10="MS SQL Standard Edition - Passive VM",,IF($D10="MS SQL Enterprise Edition - Passive VM)",,0))))))))))))</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13">
-      <formula1>$CQ$1:$CQ$16</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D10">
+      <formula1>$CQ$1:$CQ$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13">
-      <formula1>$CP$1:$CP$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C10">
+      <formula1>$CP$1:$CP$7</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62206,7 +61309,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62237,7 +61340,7 @@
         <v>114</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>7709</v>
@@ -62267,7 +61370,7 @@
         <v>7716</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>7717</v>
@@ -65693,10 +64796,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65727,7 +64830,7 @@
         <v>114</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>7761</v>
+        <v>7759</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>7709</v>
@@ -65757,7 +64860,7 @@
         <v>7716</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>7762</v>
+        <v>7760</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>7717</v>
@@ -67487,7 +66590,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -67508,14 +66611,14 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="str">
-        <f>$A$35</f>
-        <v>Network and Connectivity Services</v>
+        <f t="shared" ref="A36:A53" si="1">$A$35</f>
+        <v>Security Solution</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>248</v>
+        <v>7699</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -67562,14 +66665,14 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="str">
-        <f>$A$35</f>
-        <v>Network and Connectivity Services</v>
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>251</v>
+        <v>7700</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
@@ -67615,39 +66718,72 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Security Solution</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7701</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1">
+        <v>8</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>11</v>
+      </c>
+      <c r="K38" s="1">
+        <v>12</v>
+      </c>
+      <c r="L38" s="1">
+        <v>13</v>
+      </c>
+      <c r="M38" s="1">
+        <v>14</v>
+      </c>
+      <c r="N38" s="1">
+        <v>15</v>
+      </c>
+      <c r="O38" s="1">
+        <v>13</v>
+      </c>
+      <c r="P38" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
-        <f t="shared" ref="A39:A56" si="1">$A$38</f>
+        <f t="shared" si="1"/>
         <v>Security Solution</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>7699</v>
+        <v>278</v>
       </c>
       <c r="D39" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1">
         <v>6</v>
@@ -67698,10 +66834,10 @@
         <v>247</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>7700</v>
+        <v>83</v>
       </c>
       <c r="D40" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1">
         <v>6</v>
@@ -67752,10 +66888,10 @@
         <v>247</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>7701</v>
+        <v>7702</v>
       </c>
       <c r="D41" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1">
         <v>6</v>
@@ -67806,10 +66942,10 @@
         <v>247</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D42" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E42" s="1">
         <v>6</v>
@@ -67860,10 +66996,10 @@
         <v>247</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="D43" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E43" s="1">
         <v>6</v>
@@ -67914,10 +67050,10 @@
         <v>247</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>7702</v>
+        <v>7703</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="1">
         <v>6</v>
@@ -67968,10 +67104,10 @@
         <v>247</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>287</v>
+        <v>7704</v>
       </c>
       <c r="D45" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
@@ -68022,10 +67158,10 @@
         <v>247</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>290</v>
+        <v>7705</v>
       </c>
       <c r="D46" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
@@ -68076,10 +67212,10 @@
         <v>247</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>7703</v>
+        <v>302</v>
       </c>
       <c r="D47" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E47" s="1">
         <v>6</v>
@@ -68130,10 +67266,10 @@
         <v>247</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>7704</v>
+        <v>7706</v>
       </c>
       <c r="D48" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E48" s="1">
         <v>6</v>
@@ -68184,10 +67320,10 @@
         <v>247</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>7705</v>
+        <v>7707</v>
       </c>
       <c r="D49" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49" s="1">
         <v>6</v>
@@ -68238,10 +67374,10 @@
         <v>247</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D50" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E50" s="1">
         <v>6</v>
@@ -68292,10 +67428,10 @@
         <v>247</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>7706</v>
+        <v>314</v>
       </c>
       <c r="D51" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -68346,10 +67482,10 @@
         <v>247</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>7707</v>
+        <v>317</v>
       </c>
       <c r="D52" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -68400,10 +67536,10 @@
         <v>247</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D53" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E53" s="1">
         <v>6</v>
@@ -68446,72 +67582,39 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Security Solution</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D54" s="1">
-        <v>20</v>
-      </c>
-      <c r="E54" s="1">
-        <v>6</v>
-      </c>
-      <c r="F54" s="1">
-        <v>7</v>
-      </c>
-      <c r="G54" s="1">
-        <v>8</v>
-      </c>
-      <c r="H54" s="1">
-        <v>9</v>
-      </c>
-      <c r="I54" s="1">
-        <v>10</v>
-      </c>
-      <c r="J54" s="1">
-        <v>11</v>
-      </c>
-      <c r="K54" s="1">
-        <v>12</v>
-      </c>
-      <c r="L54" s="1">
-        <v>13</v>
-      </c>
-      <c r="M54" s="1">
-        <v>14</v>
-      </c>
-      <c r="N54" s="1">
-        <v>15</v>
-      </c>
-      <c r="O54" s="1">
-        <v>13</v>
-      </c>
-      <c r="P54" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>15</v>
-      </c>
+      <c r="A54" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Security Solution</v>
+        <f t="shared" ref="A55:A63" si="2">$A$54</f>
+        <v>Managed Services</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D55" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
         <v>6</v>
@@ -68555,17 +67658,17 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Security Solution</v>
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D56" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E56" s="1">
         <v>6</v>
@@ -68608,78 +67711,111 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>323</v>
-      </c>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
+      <c r="A57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Managed Services</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4</v>
+      </c>
+      <c r="H57" s="1">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1">
+        <v>4</v>
+      </c>
+      <c r="K57" s="1">
+        <v>4</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+      <c r="M57" s="1">
+        <v>4</v>
+      </c>
+      <c r="N57" s="1">
+        <v>4</v>
+      </c>
+      <c r="O57" s="1">
+        <v>4</v>
+      </c>
+      <c r="P57" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
-        <f t="shared" ref="A58:A66" si="2">$A$57</f>
+        <f t="shared" si="2"/>
         <v>Managed Services</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="D58" s="1">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E58" s="1">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="F58" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G58" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H58" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I58" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J58" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K58" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L58" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M58" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N58" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O58" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="P58" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="Q58" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -68688,52 +67824,52 @@
         <v>Managed Services</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="D59" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G59" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H59" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I59" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J59" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K59" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L59" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M59" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N59" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O59" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P59" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q59" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -68742,52 +67878,52 @@
         <v>Managed Services</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>247</v>
+        <v>344</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G60" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H60" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I60" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J60" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K60" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L60" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M60" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N60" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O60" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P60" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q60" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -68799,49 +67935,49 @@
         <v>344</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D61" s="1">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E61" s="1">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G61" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H61" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I61" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J61" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K61" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L61" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M61" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N61" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O61" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="P61" s="1">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q61" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -68853,49 +67989,49 @@
         <v>344</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D62" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F62" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G62" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H62" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I62" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J62" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K62" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L62" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M62" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N62" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O62" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="P62" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q62" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -68904,223 +68040,60 @@
         <v>Managed Services</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E63" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F63" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H63" s="1">
         <v>9</v>
       </c>
       <c r="I63" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K63" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L63" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M63" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N63" s="1">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O63" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P63" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q63" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D64" s="1">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1">
-        <v>6</v>
-      </c>
-      <c r="F64" s="1">
-        <v>7</v>
-      </c>
-      <c r="G64" s="1">
-        <v>8</v>
-      </c>
-      <c r="H64" s="1">
         <v>9</v>
       </c>
-      <c r="I64" s="1">
-        <v>10</v>
-      </c>
-      <c r="J64" s="1">
-        <v>11</v>
-      </c>
-      <c r="K64" s="1">
-        <v>12</v>
-      </c>
-      <c r="L64" s="1">
-        <v>13</v>
-      </c>
-      <c r="M64" s="1">
-        <v>14</v>
-      </c>
-      <c r="N64" s="1">
-        <v>15</v>
-      </c>
-      <c r="O64" s="1">
-        <v>13</v>
-      </c>
-      <c r="P64" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D65" s="1">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1">
-        <v>6</v>
-      </c>
-      <c r="F65" s="1">
-        <v>7</v>
-      </c>
-      <c r="G65" s="1">
-        <v>8</v>
-      </c>
-      <c r="H65" s="1">
-        <v>9</v>
-      </c>
-      <c r="I65" s="1">
-        <v>10</v>
-      </c>
-      <c r="J65" s="1">
-        <v>11</v>
-      </c>
-      <c r="K65" s="1">
-        <v>12</v>
-      </c>
-      <c r="L65" s="1">
-        <v>13</v>
-      </c>
-      <c r="M65" s="1">
-        <v>14</v>
-      </c>
-      <c r="N65" s="1">
-        <v>15</v>
-      </c>
-      <c r="O65" s="1">
-        <v>13</v>
-      </c>
-      <c r="P65" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q65" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Managed Services</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D66" s="1">
-        <v>9</v>
-      </c>
-      <c r="E66" s="1">
-        <v>9</v>
-      </c>
-      <c r="F66" s="1">
-        <v>9</v>
-      </c>
-      <c r="G66" s="1">
-        <v>9</v>
-      </c>
-      <c r="H66" s="1">
-        <v>9</v>
-      </c>
-      <c r="I66" s="1">
-        <v>9</v>
-      </c>
-      <c r="J66" s="1">
-        <v>9</v>
-      </c>
-      <c r="K66" s="1">
-        <v>9</v>
-      </c>
-      <c r="L66" s="1">
-        <v>9</v>
-      </c>
-      <c r="M66" s="1">
-        <v>9</v>
-      </c>
-      <c r="N66" s="1">
-        <v>9</v>
-      </c>
-      <c r="O66" s="1">
-        <v>9</v>
-      </c>
-      <c r="P66" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A35:Q35"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A57:Q57"/>
+    <mergeCell ref="A54:Q54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
